--- a/SCBAA/2019/Region 10.xlsx
+++ b/SCBAA/2019/Region 10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F4B8E8-44AA-49B6-9B67-D2486ED8CE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6956F6-68C4-4F49-80FD-A99C7D6AEA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13650" yWindow="240" windowWidth="14625" windowHeight="12540" firstSheet="4" activeTab="8" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" firstSheet="4" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tangub" sheetId="10" r:id="rId1"/>
@@ -27,6 +27,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -266,7 +273,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +502,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1040,7 +1053,7 @@
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1196,6 +1209,32 @@
     </xf>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -7548,8 +7587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C7E2F-6921-492A-994A-2D9F2EE4CA90}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7673,7 +7712,9 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -7682,7 +7723,9 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -7691,7 +7734,9 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -7700,8 +7745,8 @@
         <v>4</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
+      <c r="E14" s="63">
+        <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
     </row>
@@ -7712,7 +7757,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="31"/>
+      <c r="E15" s="64"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -7721,7 +7766,9 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="53"/>
+      <c r="E16" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -7730,7 +7777,9 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="53"/>
+      <c r="E17" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -7739,7 +7788,9 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="53"/>
+      <c r="E18" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -7748,8 +7799,8 @@
         <v>6</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
+      <c r="E19" s="63">
+        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
     </row>
@@ -7760,7 +7811,7 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="32"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -7769,7 +7820,9 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="53"/>
+      <c r="E21" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -7778,7 +7831,9 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="53"/>
+      <c r="E22" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -7787,7 +7842,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -7796,7 +7851,9 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -7805,7 +7862,9 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -7814,7 +7873,9 @@
       <c r="D26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -7823,7 +7884,9 @@
       <c r="D27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="27"/>
+      <c r="E27" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -7841,7 +7904,9 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="54"/>
+      <c r="E29" s="62">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -7850,7 +7915,9 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -7859,7 +7926,9 @@
         <v>40</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="23"/>
+      <c r="E31" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -7868,7 +7937,7 @@
         <v>41</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="32"/>
+      <c r="E32" s="56"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -7877,7 +7946,9 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="19"/>
+      <c r="E33" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -7886,7 +7957,9 @@
       <c r="D34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="19"/>
+      <c r="E34" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -7895,7 +7968,9 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="28"/>
+      <c r="E35" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -7904,7 +7979,9 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="28"/>
+      <c r="E36" s="64">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -7913,7 +7990,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="30">
+      <c r="E37" s="63">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>0</v>
       </c>
@@ -7923,7 +8000,7 @@
       <c r="B38" s="12"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="33"/>
+      <c r="E38" s="68"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -7932,7 +8009,7 @@
       <c r="B39" s="12"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="19"/>
+      <c r="E39" s="66"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -7941,7 +8018,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="19"/>
+      <c r="E40" s="66"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -7950,7 +8027,7 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="32"/>
+      <c r="E41" s="56"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -7959,7 +8036,9 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="53"/>
+      <c r="E42" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -7968,7 +8047,9 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="53"/>
+      <c r="E43" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -7977,7 +8058,9 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="55"/>
+      <c r="E44" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -7986,7 +8069,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="32"/>
+      <c r="E45" s="61"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -7995,7 +8078,9 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -8004,7 +8089,9 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="23"/>
+      <c r="E47" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -8013,7 +8100,9 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -8022,7 +8111,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="26"/>
+      <c r="E49" s="61"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -8031,7 +8120,9 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="53"/>
+      <c r="E50" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -8040,7 +8131,9 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="53"/>
+      <c r="E51" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -8049,7 +8142,9 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="39"/>
+      <c r="E52" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -8058,7 +8153,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="26"/>
+      <c r="E53" s="61"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -8067,7 +8162,9 @@
       <c r="D54" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="23"/>
+      <c r="E54" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -8076,7 +8173,9 @@
       <c r="D55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="39"/>
+      <c r="E55" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
@@ -8085,7 +8184,9 @@
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="18"/>
+      <c r="E56" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -8094,7 +8195,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="29"/>
+      <c r="E57" s="56"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -8103,7 +8204,9 @@
       <c r="D58" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="53"/>
+      <c r="E58" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -8112,7 +8215,9 @@
       <c r="D59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="53"/>
+      <c r="E59" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
@@ -8121,7 +8226,9 @@
       <c r="D60" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E60" s="25"/>
+      <c r="E60" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -8130,7 +8237,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="29"/>
+      <c r="E61" s="69"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -8139,7 +8246,9 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="53"/>
+      <c r="E62" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -8148,7 +8257,9 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="53"/>
+      <c r="E63" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -8157,7 +8268,9 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="36"/>
+      <c r="E64" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
@@ -8166,7 +8279,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="32"/>
+      <c r="E65" s="61"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -8175,7 +8288,9 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="53"/>
+      <c r="E66" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
@@ -8184,7 +8299,9 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="53"/>
+      <c r="E67" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -8193,7 +8310,9 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="53"/>
+      <c r="E68" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
@@ -8202,7 +8321,7 @@
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
-      <c r="E69" s="36"/>
+      <c r="E69" s="56"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
@@ -8211,7 +8330,9 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="19"/>
+      <c r="E70" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -8220,7 +8341,9 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="19"/>
+      <c r="E71" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
@@ -8229,7 +8352,9 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="34"/>
+      <c r="E72" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -8238,7 +8363,7 @@
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
-      <c r="E73" s="32"/>
+      <c r="E73" s="56"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
@@ -8247,7 +8372,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="19"/>
+      <c r="E74" s="66"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -8256,7 +8381,9 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="53"/>
+      <c r="E75" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -8265,7 +8392,9 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="53"/>
+      <c r="E76" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -8274,7 +8403,7 @@
         <v>53</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="19"/>
+      <c r="E77" s="67"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -8283,7 +8412,9 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="53"/>
+      <c r="E78" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -8292,7 +8423,9 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="53"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -8301,7 +8434,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="18"/>
+      <c r="E80" s="65"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8310,7 +8443,9 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="53"/>
+      <c r="E81" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
@@ -8319,7 +8454,9 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="53"/>
+      <c r="E82" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -8328,7 +8465,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="19"/>
+      <c r="E83" s="66"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -8337,7 +8474,9 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="34"/>
+      <c r="E84" s="68">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -8346,7 +8485,9 @@
       <c r="D85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E85" s="34"/>
+      <c r="E85" s="68">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -8355,7 +8496,7 @@
         <v>56</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="19"/>
+      <c r="E86" s="66"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -8364,7 +8505,9 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="53"/>
+      <c r="E87" s="68">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -8373,7 +8516,9 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="53"/>
+      <c r="E88" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -8382,7 +8527,7 @@
         <v>51</v>
       </c>
       <c r="D89" s="8"/>
-      <c r="E89" s="19"/>
+      <c r="E89" s="66"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -8391,7 +8536,9 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="39"/>
+      <c r="E90" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
@@ -8400,7 +8547,9 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="53"/>
+      <c r="E91" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
@@ -8409,14 +8558,16 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="53"/>
+      <c r="E92" s="66">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D93" s="8"/>
-      <c r="E93" s="35">
+      <c r="E93" s="70">
         <f>SUM(E41:E92)</f>
         <v>0</v>
       </c>
@@ -8428,7 +8579,7 @@
       <c r="B94" s="8"/>
       <c r="C94" s="12"/>
       <c r="D94" s="15"/>
-      <c r="E94" s="19"/>
+      <c r="E94" s="66"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
@@ -8448,7 +8599,9 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="39"/>
+      <c r="E96" s="61">
+        <v>0</v>
+      </c>
       <c r="F96" s="10"/>
       <c r="G96" s="8"/>
       <c r="I96" s="9"/>
@@ -8460,7 +8613,7 @@
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="19"/>
+      <c r="E97" s="66"/>
       <c r="F97" s="10"/>
       <c r="G97" s="8"/>
       <c r="H97" s="10"/>
@@ -8472,7 +8625,9 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="39"/>
+      <c r="E98" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
@@ -8480,7 +8635,7 @@
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
-      <c r="E99" s="32"/>
+      <c r="E99" s="56"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8"/>
@@ -8488,7 +8643,9 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="37"/>
+      <c r="E100" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
@@ -8496,7 +8653,7 @@
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
-      <c r="E101" s="32"/>
+      <c r="E101" s="56"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
@@ -8504,7 +8661,9 @@
       <c r="D102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="26"/>
+      <c r="E102" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
@@ -8512,7 +8671,7 @@
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
-      <c r="E103" s="32"/>
+      <c r="E103" s="56"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
@@ -8520,7 +8679,9 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="25"/>
+      <c r="E104" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
@@ -8528,7 +8689,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="32"/>
+      <c r="E105" s="56"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -8536,7 +8697,9 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="39"/>
+      <c r="E106" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
@@ -8544,7 +8707,7 @@
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
-      <c r="E107" s="32"/>
+      <c r="E107" s="56"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
@@ -8552,7 +8715,9 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="39"/>
+      <c r="E108" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
@@ -8561,7 +8726,7 @@
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
-      <c r="E109" s="32"/>
+      <c r="E109" s="56"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
@@ -8569,7 +8734,9 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="53"/>
+      <c r="E110" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
@@ -10998,7 +11165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191BD2DF-E051-4277-93AB-C7AB36FD6A7D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/SCBAA/2019/Region 10.xlsx
+++ b/SCBAA/2019/Region 10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6956F6-68C4-4F49-80FD-A99C7D6AEA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CF003C-C8D0-4727-9EA1-395719DBB3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" firstSheet="4" activeTab="5" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="3" activeTab="6" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Tangub" sheetId="10" r:id="rId1"/>
@@ -1198,18 +1198,6 @@
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="82" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="82" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1235,6 +1223,18 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,54 +1647,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1708,22 +1708,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1793,7 +1793,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>10918502</v>
       </c>
     </row>
@@ -1847,7 +1846,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>104311033</v>
       </c>
     </row>
@@ -2038,7 +2036,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>688408387</v>
       </c>
     </row>
@@ -2595,7 +2592,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="23">
-        <f>15290581+438495+2835479</f>
         <v>18564555</v>
       </c>
     </row>
@@ -2616,7 +2612,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>511442963</v>
       </c>
     </row>
@@ -2791,7 +2786,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -2803,7 +2797,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>511442963</v>
       </c>
     </row>
@@ -2825,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34F2253-6815-409D-8F88-1EAF6167736E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,54 +2831,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2899,22 +2892,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2973,7 +2966,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="24">
-        <f>17629944.75+35133215.85</f>
         <v>52763160.600000001</v>
       </c>
     </row>
@@ -2985,7 +2977,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>2007562969.3600001</v>
       </c>
     </row>
@@ -3039,7 +3030,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>339794115.57999998</v>
       </c>
     </row>
@@ -3230,7 +3220,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>4111805674.3800001</v>
       </c>
     </row>
@@ -3807,7 +3796,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>3535592259.1200004</v>
       </c>
     </row>
@@ -3982,7 +3970,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -3994,7 +3981,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>3535592259.1200004</v>
       </c>
     </row>
@@ -4029,54 +4015,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -4090,22 +4076,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -5206,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1959540E-DB3D-4EA6-A1E4-65BF5C6DFF80}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F107" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,54 +5205,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -5280,22 +5266,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -5365,7 +5351,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>104182545.90000001</v>
       </c>
     </row>
@@ -5408,7 +5393,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="53">
-        <f>125383.36+5719453.34</f>
         <v>5844836.7000000002</v>
       </c>
     </row>
@@ -5420,7 +5404,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>33888012.840000004</v>
       </c>
     </row>
@@ -5611,7 +5594,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1049005206.1</v>
       </c>
     </row>
@@ -6188,7 +6170,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>914797684.93999994</v>
       </c>
     </row>
@@ -6363,7 +6344,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>31240492.409999996</v>
       </c>
     </row>
@@ -6375,7 +6355,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>946038177.3499999</v>
       </c>
     </row>
@@ -6410,54 +6389,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -6471,22 +6450,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7587,7 +7566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3C7E2F-6921-492A-994A-2D9F2EE4CA90}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
@@ -7600,54 +7579,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -7661,22 +7640,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -7712,7 +7691,7 @@
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="57">
         <v>0</v>
       </c>
     </row>
@@ -7723,7 +7702,7 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7734,7 +7713,7 @@
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7745,7 +7724,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="63">
+      <c r="E14" s="59">
         <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
@@ -7757,7 +7736,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="64"/>
+      <c r="E15" s="60"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -7766,7 +7745,7 @@
       <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7777,7 +7756,7 @@
       <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7788,7 +7767,7 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7799,7 +7778,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="63">
+      <c r="E19" s="59">
         <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
@@ -7820,7 +7799,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="62">
+      <c r="E21" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7831,7 +7810,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="61">
+      <c r="E22" s="57">
         <v>0</v>
       </c>
     </row>
@@ -7842,7 +7821,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="65"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -7851,7 +7830,7 @@
       <c r="D24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="57">
         <v>0</v>
       </c>
     </row>
@@ -7862,7 +7841,7 @@
       <c r="D25" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7873,7 +7852,7 @@
       <c r="D26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7884,7 +7863,7 @@
       <c r="D27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7904,7 +7883,7 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="58">
         <v>0</v>
       </c>
     </row>
@@ -7915,7 +7894,7 @@
       <c r="D30" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="63">
         <v>0</v>
       </c>
     </row>
@@ -7926,7 +7905,7 @@
         <v>40</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="66">
+      <c r="E31" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7946,7 +7925,7 @@
       <c r="D33" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="66">
+      <c r="E33" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7957,7 +7936,7 @@
       <c r="D34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="66">
+      <c r="E34" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7968,7 +7947,7 @@
       <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="57">
         <v>0</v>
       </c>
     </row>
@@ -7979,7 +7958,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="64">
+      <c r="E36" s="60">
         <v>0</v>
       </c>
     </row>
@@ -7990,7 +7969,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="63">
+      <c r="E37" s="59">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>0</v>
       </c>
@@ -8000,7 +7979,7 @@
       <c r="B38" s="12"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="68"/>
+      <c r="E38" s="64"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
@@ -8009,7 +7988,7 @@
       <c r="B39" s="12"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="66"/>
+      <c r="E39" s="62"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
@@ -8018,7 +7997,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="66"/>
+      <c r="E40" s="62"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -8036,7 +8015,7 @@
       <c r="D42" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8047,7 +8026,7 @@
       <c r="D43" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8058,7 +8037,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="61">
+      <c r="E44" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8069,7 +8048,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="61"/>
+      <c r="E45" s="57"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -8078,7 +8057,7 @@
       <c r="D46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8089,7 +8068,7 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="61">
+      <c r="E47" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8100,7 +8079,7 @@
       <c r="D48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8111,7 +8090,7 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="61"/>
+      <c r="E49" s="57"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
@@ -8120,7 +8099,7 @@
       <c r="D50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8131,7 +8110,7 @@
       <c r="D51" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="61">
+      <c r="E51" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8142,7 +8121,7 @@
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="61">
+      <c r="E52" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8153,7 +8132,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="61"/>
+      <c r="E53" s="57"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -8237,7 +8216,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="69"/>
+      <c r="E61" s="65"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -8246,7 +8225,7 @@
       <c r="D62" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="61">
+      <c r="E62" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8257,7 +8236,7 @@
       <c r="D63" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="61">
+      <c r="E63" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8268,7 +8247,7 @@
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8279,7 +8258,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="61"/>
+      <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -8288,7 +8267,7 @@
       <c r="D66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="61">
+      <c r="E66" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8299,7 +8278,7 @@
       <c r="D67" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="61">
+      <c r="E67" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8310,7 +8289,7 @@
       <c r="D68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="61">
+      <c r="E68" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8330,7 +8309,7 @@
       <c r="D70" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="69">
+      <c r="E70" s="65">
         <v>0</v>
       </c>
     </row>
@@ -8341,7 +8320,7 @@
       <c r="D71" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="69">
+      <c r="E71" s="65">
         <v>0</v>
       </c>
     </row>
@@ -8352,7 +8331,7 @@
       <c r="D72" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E72" s="69">
+      <c r="E72" s="65">
         <v>0</v>
       </c>
     </row>
@@ -8372,7 +8351,7 @@
         <v>52</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="66"/>
+      <c r="E74" s="62"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -8381,7 +8360,7 @@
       <c r="D75" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="61">
+      <c r="E75" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8392,7 +8371,7 @@
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="66">
+      <c r="E76" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8403,7 +8382,7 @@
         <v>53</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="67"/>
+      <c r="E77" s="63"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -8412,7 +8391,7 @@
       <c r="D78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E78" s="61">
+      <c r="E78" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8423,7 +8402,7 @@
       <c r="D79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="61">
+      <c r="E79" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8434,7 +8413,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="65"/>
+      <c r="E80" s="61"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8443,7 +8422,7 @@
       <c r="D81" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E81" s="61">
+      <c r="E81" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8454,7 +8433,7 @@
       <c r="D82" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E82" s="61">
+      <c r="E82" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8465,7 +8444,7 @@
         <v>55</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="66"/>
+      <c r="E83" s="62"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -8474,7 +8453,7 @@
       <c r="D84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="68">
+      <c r="E84" s="64">
         <v>0</v>
       </c>
     </row>
@@ -8485,7 +8464,7 @@
       <c r="D85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E85" s="68">
+      <c r="E85" s="64">
         <v>0</v>
       </c>
     </row>
@@ -8496,7 +8475,7 @@
         <v>56</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="66"/>
+      <c r="E86" s="62"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -8505,7 +8484,7 @@
       <c r="D87" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="68">
+      <c r="E87" s="64">
         <v>0</v>
       </c>
     </row>
@@ -8516,7 +8495,7 @@
       <c r="D88" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E88" s="66">
+      <c r="E88" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8527,7 +8506,7 @@
         <v>51</v>
       </c>
       <c r="D89" s="8"/>
-      <c r="E89" s="66"/>
+      <c r="E89" s="62"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -8536,7 +8515,7 @@
       <c r="D90" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="66">
+      <c r="E90" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8547,7 +8526,7 @@
       <c r="D91" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E91" s="61">
+      <c r="E91" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8558,7 +8537,7 @@
       <c r="D92" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="66">
+      <c r="E92" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8567,7 +8546,7 @@
         <v>59</v>
       </c>
       <c r="D93" s="8"/>
-      <c r="E93" s="70">
+      <c r="E93" s="66">
         <f>SUM(E41:E92)</f>
         <v>0</v>
       </c>
@@ -8579,7 +8558,7 @@
       <c r="B94" s="8"/>
       <c r="C94" s="12"/>
       <c r="D94" s="15"/>
-      <c r="E94" s="66"/>
+      <c r="E94" s="62"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
@@ -8599,7 +8578,7 @@
       <c r="D96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E96" s="61">
+      <c r="E96" s="57">
         <v>0</v>
       </c>
       <c r="F96" s="10"/>
@@ -8613,7 +8592,7 @@
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="66"/>
+      <c r="E97" s="62"/>
       <c r="F97" s="10"/>
       <c r="G97" s="8"/>
       <c r="H97" s="10"/>
@@ -8625,7 +8604,7 @@
       <c r="D98" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E98" s="61">
+      <c r="E98" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8643,7 +8622,7 @@
       <c r="D100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="61">
+      <c r="E100" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8661,7 +8640,7 @@
       <c r="D102" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E102" s="61">
+      <c r="E102" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8679,7 +8658,7 @@
       <c r="D104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="61">
+      <c r="E104" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8697,7 +8676,7 @@
       <c r="D106" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="61">
+      <c r="E106" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8715,7 +8694,7 @@
       <c r="D108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="61">
+      <c r="E108" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8734,7 +8713,7 @@
       <c r="D110" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E110" s="61">
+      <c r="E110" s="57">
         <v>0</v>
       </c>
     </row>
@@ -8777,8 +8756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3945C9B9-B218-4FFB-B4D4-8EC300B4DA81}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8790,54 +8769,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -8851,22 +8830,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -8903,7 +8882,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="53">
-        <f>6959612+6678053</f>
         <v>13637665</v>
       </c>
     </row>
@@ -8937,7 +8915,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="30">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>48315233</v>
       </c>
     </row>
@@ -8980,7 +8957,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="53">
-        <f>9660144+3057170</f>
         <v>12717314</v>
       </c>
     </row>
@@ -8992,7 +8968,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="30">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>44350984</v>
       </c>
     </row>
@@ -9183,7 +9158,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="30">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>637037178</v>
       </c>
     </row>
@@ -9523,7 +9497,6 @@
         <v>10</v>
       </c>
       <c r="E70" s="19">
-        <f>21882514+2217588</f>
         <v>24100102</v>
       </c>
     </row>
@@ -9535,7 +9508,6 @@
         <v>11</v>
       </c>
       <c r="E71" s="19">
-        <f>16712126+104335</f>
         <v>16816461</v>
       </c>
     </row>
@@ -9547,7 +9519,6 @@
         <v>12</v>
       </c>
       <c r="E72" s="34">
-        <f>859080</f>
         <v>859080</v>
       </c>
     </row>
@@ -9732,7 +9703,6 @@
         <v>57</v>
       </c>
       <c r="E90" s="39">
-        <f>57303+11626423+40311655</f>
         <v>51995381</v>
       </c>
     </row>
@@ -9744,7 +9714,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="53">
-        <f>5614363+6309044+11807793</f>
         <v>23731200</v>
       </c>
     </row>
@@ -9756,7 +9725,6 @@
         <v>50</v>
       </c>
       <c r="E92" s="53">
-        <f>304218+1596571+913729</f>
         <v>2814518</v>
       </c>
     </row>
@@ -9766,7 +9734,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="35">
-        <f>SUM(E41:E92)</f>
         <v>597554486</v>
       </c>
     </row>
@@ -9941,7 +9908,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -9953,7 +9919,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>597554486</v>
       </c>
     </row>
@@ -9988,54 +9953,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -10049,22 +10014,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -11178,54 +11143,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -11239,22 +11204,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
